--- a/pertemuan17/Normalisasi Data.xlsx
+++ b/pertemuan17/Normalisasi Data.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fayayaa/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0E0E52-249B-8F49-A1EA-718EE1B16F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data Nilai Mahasiswa" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Transaksi" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Penugasan Personel TNI" sheetId="3" r:id="rId6"/>
+    <sheet name="Data Nilai Mahasiswa" sheetId="1" r:id="rId1"/>
+    <sheet name="Transaksi" sheetId="2" r:id="rId2"/>
+    <sheet name="Penugasan Personel TNI" sheetId="3" r:id="rId3"/>
+    <sheet name="Tugas" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="238">
   <si>
     <t>Data Tidak Normal (UNF)</t>
   </si>
@@ -484,41 +494,301 @@
   </si>
   <si>
     <t>surat_tugas_id</t>
+  </si>
+  <si>
+    <t>UNF</t>
+  </si>
+  <si>
+    <t>id_member</t>
+  </si>
+  <si>
+    <t>nama_member</t>
+  </si>
+  <si>
+    <t>tipe_member</t>
+  </si>
+  <si>
+    <t>keterangan-member</t>
+  </si>
+  <si>
+    <t>id_theater</t>
+  </si>
+  <si>
+    <t>nama_theater</t>
+  </si>
+  <si>
+    <t>id_movie</t>
+  </si>
+  <si>
+    <t>nama_movie</t>
+  </si>
+  <si>
+    <t>id_faktur</t>
+  </si>
+  <si>
+    <t>waktu_tayang</t>
+  </si>
+  <si>
+    <t>harga_tiket</t>
+  </si>
+  <si>
+    <t>qty_tiket</t>
+  </si>
+  <si>
+    <t>Muri</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>Paris Van Java</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>Orang Kaya Baru</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>22/01/2019 17.00</t>
+  </si>
+  <si>
+    <t>Rp 35.000</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>Twice Land</t>
+  </si>
+  <si>
+    <t>F002</t>
+  </si>
+  <si>
+    <t>22/01/2019 19.00</t>
+  </si>
+  <si>
+    <t>Luga</t>
+  </si>
+  <si>
+    <t>ELT</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>Grand Indonesia</t>
+  </si>
+  <si>
+    <t>F003</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>Escape Room</t>
+  </si>
+  <si>
+    <t>F004</t>
+  </si>
+  <si>
+    <t>22/01/2019 21.00</t>
+  </si>
+  <si>
+    <t>Rigo</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>F005</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>Terlalu Tampan</t>
+  </si>
+  <si>
+    <t>F006</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>F007</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>F008</t>
+  </si>
+  <si>
+    <t>1NF</t>
+  </si>
+  <si>
+    <t>2NF</t>
+  </si>
+  <si>
+    <t>table_member</t>
+  </si>
+  <si>
+    <t>table_theater</t>
+  </si>
+  <si>
+    <t>table_movie</t>
+  </si>
+  <si>
+    <t>3NF(A)</t>
+  </si>
+  <si>
+    <t>table_detail_transaksi</t>
+  </si>
+  <si>
+    <t>3NF(B)</t>
+  </si>
+  <si>
+    <t>table_tipe_member</t>
+  </si>
+  <si>
+    <t>table_keterangan_member</t>
+  </si>
+  <si>
+    <t>tipe_member_id</t>
+  </si>
+  <si>
+    <t>keterangan-member_id</t>
+  </si>
+  <si>
+    <t>id_tipe_member</t>
+  </si>
+  <si>
+    <t>id_keterangan_member</t>
+  </si>
+  <si>
+    <t>table_nama_theater</t>
+  </si>
+  <si>
+    <t>table_kota</t>
+  </si>
+  <si>
+    <t>nama_theater_id</t>
+  </si>
+  <si>
+    <t>kota_id</t>
+  </si>
+  <si>
+    <t>id_nama_theater</t>
+  </si>
+  <si>
+    <t>id_kota</t>
+  </si>
+  <si>
+    <t>table_waktu_tayang</t>
+  </si>
+  <si>
+    <t>table_harga_tiket</t>
+  </si>
+  <si>
+    <t>waktu_tayang_id</t>
+  </si>
+  <si>
+    <t>harga_tiket_id</t>
+  </si>
+  <si>
+    <t>id_waktu_tayang</t>
+  </si>
+  <si>
+    <t>id_harga_tiket</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>theater_id</t>
+  </si>
+  <si>
+    <t>movie_id</t>
+  </si>
+  <si>
+    <t>faktur_id</t>
+  </si>
+  <si>
+    <t>id_transaksi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -574,96 +844,165 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -853,26 +1192,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -898,15 +1247,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4">
-        <v>1230.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="25">
+        <v>1230</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -918,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>13</v>
@@ -933,9 +1282,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
@@ -947,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>18</v>
@@ -962,15 +1313,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>23</v>
@@ -979,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>25</v>
@@ -994,15 +1345,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
@@ -1014,7 +1365,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>29</v>
@@ -1026,15 +1377,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>3542.0</v>
+        <v>3542</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>32</v>
@@ -1052,13 +1403,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="24" t="s">
         <v>36</v>
       </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1084,15 +1442,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>10</v>
@@ -1104,21 +1462,21 @@
         <v>12</v>
       </c>
       <c r="H17" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -1130,21 +1488,21 @@
         <v>12</v>
       </c>
       <c r="H18" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>17</v>
@@ -1156,21 +1514,21 @@
         <v>24</v>
       </c>
       <c r="H19" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>10</v>
@@ -1182,21 +1540,21 @@
         <v>24</v>
       </c>
       <c r="H20" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4">
-        <v>3542.0</v>
+        <v>3542</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
@@ -1208,47 +1566,61 @@
         <v>34</v>
       </c>
       <c r="H21" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="23"/>
+      <c r="E29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="F29" s="23"/>
+      <c r="H29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="I29" s="23"/>
+      <c r="K29" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
@@ -1274,15 +1646,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>10</v>
@@ -1294,21 +1666,21 @@
         <v>12</v>
       </c>
       <c r="K31" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>17</v>
@@ -1320,21 +1692,21 @@
         <v>12</v>
       </c>
       <c r="K32" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>17</v>
@@ -1346,21 +1718,21 @@
         <v>24</v>
       </c>
       <c r="K33" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>10</v>
@@ -1372,21 +1744,21 @@
         <v>24</v>
       </c>
       <c r="K34" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="4">
-        <v>3542.0</v>
+        <v>3542</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>32</v>
@@ -1398,18 +1770,26 @@
         <v>34</v>
       </c>
       <c r="K35" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1418,35 +1798,38 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="C43" s="23"/>
+      <c r="E43" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="F43" s="23"/>
+      <c r="H43" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1460,15 +1843,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>10</v>
@@ -1480,15 +1863,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>17</v>
@@ -1500,15 +1883,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>17</v>
@@ -1521,15 +1904,15 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>10</v>
@@ -1541,15 +1924,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="2:9" ht="13" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="4">
-        <v>3542.0</v>
+        <v>3542</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>32</v>
@@ -1561,12 +1944,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52">
-      <c r="C52" s="6" t="s">
+    <row r="52" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="C52" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="2:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C53" s="5" t="s">
         <v>1</v>
       </c>
@@ -1583,86 +1970,86 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="2:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C54" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="D54" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="2:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C55" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="D55" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="2:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C56" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="D56" s="4">
-        <v>5478.0</v>
+        <v>5478</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="2:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C57" s="4">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="D57" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="2:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C58" s="4">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="D58" s="4">
-        <v>3542.0</v>
+        <v>3542</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F58" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>29</v>
@@ -1670,12 +2057,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B7:B8"/>
@@ -1684,34 +2065,46 @@
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B37:J37"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1722,7 +2115,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1745,12 +2138,12 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="9">
-        <v>44025.0</v>
+      <c r="B4" s="28">
+        <v>44025</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>55</v>
@@ -1759,16 +2152,18 @@
         <v>56</v>
       </c>
       <c r="E4" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1776,16 +2171,18 @@
         <v>58</v>
       </c>
       <c r="E5" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="F5" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>59</v>
       </c>
@@ -1793,16 +2190,18 @@
         <v>60</v>
       </c>
       <c r="E6" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="F6" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1810,21 +2209,21 @@
         <v>62</v>
       </c>
       <c r="E7" s="4">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="F7" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="9">
-        <v>44025.0</v>
+      <c r="B8" s="28">
+        <v>44025</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>64</v>
@@ -1833,16 +2232,18 @@
         <v>65</v>
       </c>
       <c r="E8" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
@@ -1850,21 +2251,21 @@
         <v>67</v>
       </c>
       <c r="E9" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="9">
-        <v>44027.0</v>
+      <c r="B10" s="8">
+        <v>44027</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>69</v>
@@ -1873,16 +2274,16 @@
         <v>70</v>
       </c>
       <c r="E10" s="4">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="F10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1893,12 +2294,17 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1918,12 +2324,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="9">
-        <v>44025.0</v>
+      <c r="B16" s="8">
+        <v>44025</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>55</v>
@@ -1932,18 +2338,18 @@
         <v>56</v>
       </c>
       <c r="E16" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="F16" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="9">
-        <v>44025.0</v>
+      <c r="B17" s="8">
+        <v>44025</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>57</v>
@@ -1952,18 +2358,18 @@
         <v>58</v>
       </c>
       <c r="E17" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="9">
-        <v>44025.0</v>
+      <c r="B18" s="8">
+        <v>44025</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>59</v>
@@ -1972,18 +2378,18 @@
         <v>60</v>
       </c>
       <c r="E18" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="F18" s="4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="9">
-        <v>44025.0</v>
+      <c r="B19" s="8">
+        <v>44025</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>61</v>
@@ -1992,18 +2398,18 @@
         <v>62</v>
       </c>
       <c r="E19" s="4">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="F19" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="9">
-        <v>44025.0</v>
+      <c r="B20" s="8">
+        <v>44025</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>64</v>
@@ -2012,18 +2418,18 @@
         <v>65</v>
       </c>
       <c r="E20" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="9">
-        <v>44025.0</v>
+      <c r="B21" s="8">
+        <v>44025</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>66</v>
@@ -2032,18 +2438,18 @@
         <v>67</v>
       </c>
       <c r="E21" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="9">
-        <v>44027.0</v>
+      <c r="B22" s="8">
+        <v>44027</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>69</v>
@@ -2052,18 +2458,18 @@
         <v>70</v>
       </c>
       <c r="E22" s="4">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -2071,7 +2477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -2079,21 +2485,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="2" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -2113,7 +2529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -2121,19 +2537,19 @@
         <v>56</v>
       </c>
       <c r="C31" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="9">
-        <v>44025.0</v>
+      <c r="F31" s="8">
+        <v>44025</v>
       </c>
       <c r="G31" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -2141,19 +2557,19 @@
         <v>58</v>
       </c>
       <c r="C32" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="9">
-        <v>44025.0</v>
+      <c r="F32" s="8">
+        <v>44025</v>
       </c>
       <c r="G32" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -2161,19 +2577,19 @@
         <v>60</v>
       </c>
       <c r="C33" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="9">
-        <v>44025.0</v>
+      <c r="F33" s="8">
+        <v>44025</v>
       </c>
       <c r="G33" s="4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -2181,19 +2597,19 @@
         <v>62</v>
       </c>
       <c r="C34" s="4">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="9">
-        <v>44025.0</v>
+      <c r="F34" s="8">
+        <v>44025</v>
       </c>
       <c r="G34" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -2201,19 +2617,19 @@
         <v>65</v>
       </c>
       <c r="C35" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="9">
-        <v>44025.0</v>
+      <c r="F35" s="8">
+        <v>44025</v>
       </c>
       <c r="G35" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
@@ -2221,19 +2637,19 @@
         <v>67</v>
       </c>
       <c r="C36" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="9">
-        <v>44025.0</v>
+      <c r="F36" s="8">
+        <v>44025</v>
       </c>
       <c r="G36" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
@@ -2241,35 +2657,43 @@
         <v>70</v>
       </c>
       <c r="C37" s="4">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="9">
-        <v>44027.0</v>
+      <c r="F37" s="8">
+        <v>44027</v>
       </c>
       <c r="G37" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="27" t="s">
         <v>79</v>
       </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="2" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="26" t="s">
         <v>78</v>
       </c>
+      <c r="F42" s="23"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -2287,7 +2711,7 @@
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
@@ -2295,16 +2719,16 @@
         <v>56</v>
       </c>
       <c r="C44" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="9">
-        <v>44025.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="F44" s="8">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
@@ -2312,16 +2736,16 @@
         <v>58</v>
       </c>
       <c r="C45" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="9">
-        <v>44025.0</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="F45" s="8">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>59</v>
       </c>
@@ -2329,16 +2753,16 @@
         <v>60</v>
       </c>
       <c r="C46" s="4">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="9">
-        <v>44025.0</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="F46" s="8">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
@@ -2346,16 +2770,16 @@
         <v>62</v>
       </c>
       <c r="C47" s="4">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="9">
-        <v>44025.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="F47" s="8">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>64</v>
       </c>
@@ -2363,16 +2787,16 @@
         <v>65</v>
       </c>
       <c r="C48" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="9">
-        <v>44025.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="F48" s="8">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>66</v>
       </c>
@@ -2380,16 +2804,16 @@
         <v>67</v>
       </c>
       <c r="C49" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="9">
-        <v>44025.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="F49" s="8">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>69</v>
       </c>
@@ -2397,21 +2821,23 @@
         <v>70</v>
       </c>
       <c r="C50" s="4">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="9">
-        <v>44027.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" s="2" t="s">
+      <c r="F50" s="8">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="C53" s="26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
         <v>48</v>
       </c>
@@ -2422,7 +2848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>54</v>
       </c>
@@ -2430,10 +2856,10 @@
         <v>55</v>
       </c>
       <c r="E55" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2441,10 +2867,10 @@
         <v>57</v>
       </c>
       <c r="E56" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>54</v>
       </c>
@@ -2452,10 +2878,10 @@
         <v>59</v>
       </c>
       <c r="E57" s="4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C58" s="4" t="s">
         <v>54</v>
       </c>
@@ -2463,10 +2889,10 @@
         <v>61</v>
       </c>
       <c r="E58" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
@@ -2474,10 +2900,10 @@
         <v>64</v>
       </c>
       <c r="E59" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>63</v>
       </c>
@@ -2485,10 +2911,10 @@
         <v>66</v>
       </c>
       <c r="E60" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>68</v>
       </c>
@@ -2496,16 +2922,11 @@
         <v>69</v>
       </c>
       <c r="E61" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:F42"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:A7"/>
@@ -2514,61 +2935,76 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:F42"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="8" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>91</v>
@@ -2585,11 +3021,11 @@
       <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="9">
-        <v>39448.0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>39452.0</v>
+      <c r="H5" s="8">
+        <v>39448</v>
+      </c>
+      <c r="I5" s="8">
+        <v>39452</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>96</v>
@@ -2598,15 +3034,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="9">
-        <v>39819.0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>40653.0</v>
+      <c r="H6" s="8">
+        <v>39819</v>
+      </c>
+      <c r="I6" s="8">
+        <v>40653</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>99</v>
@@ -2615,15 +3051,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="9">
-        <v>40654.0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>42003.0</v>
+      <c r="H7" s="8">
+        <v>40654</v>
+      </c>
+      <c r="I7" s="9">
+        <v>42003</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>102</v>
@@ -2632,9 +3068,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>103</v>
@@ -2651,11 +3087,11 @@
       <c r="G8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>40543.0</v>
+      <c r="H8" s="8">
+        <v>40179</v>
+      </c>
+      <c r="I8" s="9">
+        <v>40543</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>107</v>
@@ -2664,15 +3100,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>40908.0</v>
+      <c r="H9" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I9" s="9">
+        <v>40908</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>102</v>
@@ -2681,9 +3117,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>110</v>
@@ -2700,11 +3136,11 @@
       <c r="G10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>41274.0</v>
+      <c r="H10" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I10" s="9">
+        <v>41274</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>115</v>
@@ -2713,9 +3149,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>117</v>
@@ -2732,11 +3168,11 @@
       <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>41274.0</v>
+      <c r="H11" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I11" s="9">
+        <v>41274</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>102</v>
@@ -2745,9 +3181,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>121</v>
@@ -2764,11 +3200,11 @@
       <c r="G12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="9">
-        <v>39814.0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>40543.0</v>
+      <c r="H12" s="8">
+        <v>39814</v>
+      </c>
+      <c r="I12" s="9">
+        <v>40543</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>125</v>
@@ -2777,15 +3213,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>40908.0</v>
+      <c r="H13" s="8">
+        <v>40179</v>
+      </c>
+      <c r="I13" s="9">
+        <v>40908</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>127</v>
@@ -2794,46 +3230,55 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="8" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>91</v>
@@ -2850,11 +3295,11 @@
       <c r="G18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="9">
-        <v>39448.0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>39452.0</v>
+      <c r="H18" s="8">
+        <v>39448</v>
+      </c>
+      <c r="I18" s="8">
+        <v>39452</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>96</v>
@@ -2863,9 +3308,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>91</v>
@@ -2882,11 +3327,11 @@
       <c r="G19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="9">
-        <v>39819.0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>40653.0</v>
+      <c r="H19" s="8">
+        <v>39819</v>
+      </c>
+      <c r="I19" s="8">
+        <v>40653</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>99</v>
@@ -2895,9 +3340,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>91</v>
@@ -2914,11 +3359,11 @@
       <c r="G20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="9">
-        <v>40654.0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>42003.0</v>
+      <c r="H20" s="8">
+        <v>40654</v>
+      </c>
+      <c r="I20" s="9">
+        <v>42003</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>102</v>
@@ -2927,9 +3372,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>103</v>
@@ -2946,11 +3391,11 @@
       <c r="G21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>40543.0</v>
+      <c r="H21" s="8">
+        <v>40179</v>
+      </c>
+      <c r="I21" s="9">
+        <v>40543</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>107</v>
@@ -2959,9 +3404,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>103</v>
@@ -2978,11 +3423,11 @@
       <c r="G22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>40908.0</v>
+      <c r="H22" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I22" s="9">
+        <v>40908</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>102</v>
@@ -2991,9 +3436,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>110</v>
@@ -3010,11 +3455,11 @@
       <c r="G23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>41274.0</v>
+      <c r="H23" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I23" s="9">
+        <v>41274</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>115</v>
@@ -3023,9 +3468,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>117</v>
@@ -3042,11 +3487,11 @@
       <c r="G24" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>41274.0</v>
+      <c r="H24" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I24" s="9">
+        <v>41274</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>102</v>
@@ -3055,9 +3500,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>121</v>
@@ -3074,11 +3519,11 @@
       <c r="G25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="9">
-        <v>39814.0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>40543.0</v>
+      <c r="H25" s="8">
+        <v>39814</v>
+      </c>
+      <c r="I25" s="9">
+        <v>40543</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>125</v>
@@ -3087,9 +3532,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>121</v>
@@ -3106,11 +3551,11 @@
       <c r="G26" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>40908.0</v>
+      <c r="H26" s="8">
+        <v>40179</v>
+      </c>
+      <c r="I26" s="9">
+        <v>40908</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>127</v>
@@ -3119,12 +3564,23 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>128</v>
       </c>
@@ -3132,41 +3588,41 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>91</v>
@@ -3183,11 +3639,11 @@
       <c r="H32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="9">
-        <v>39448.0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>39452.0</v>
+      <c r="I32" s="8">
+        <v>39448</v>
+      </c>
+      <c r="J32" s="8">
+        <v>39452</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>96</v>
@@ -3196,9 +3652,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>91</v>
@@ -3215,11 +3671,11 @@
       <c r="H33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="9">
-        <v>39819.0</v>
-      </c>
-      <c r="J33" s="9">
-        <v>40653.0</v>
+      <c r="I33" s="8">
+        <v>39819</v>
+      </c>
+      <c r="J33" s="8">
+        <v>40653</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>99</v>
@@ -3228,9 +3684,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>91</v>
@@ -3247,11 +3703,11 @@
       <c r="H34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="9">
-        <v>40654.0</v>
-      </c>
-      <c r="J34" s="12">
-        <v>42003.0</v>
+      <c r="I34" s="8">
+        <v>40654</v>
+      </c>
+      <c r="J34" s="9">
+        <v>42003</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>102</v>
@@ -3260,9 +3716,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>103</v>
@@ -3279,11 +3735,11 @@
       <c r="H35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="J35" s="12">
-        <v>40543.0</v>
+      <c r="I35" s="8">
+        <v>40179</v>
+      </c>
+      <c r="J35" s="9">
+        <v>40543</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>107</v>
@@ -3292,9 +3748,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>103</v>
@@ -3311,11 +3767,11 @@
       <c r="H36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J36" s="12">
-        <v>40908.0</v>
+      <c r="I36" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J36" s="9">
+        <v>40908</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>102</v>
@@ -3324,9 +3780,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>110</v>
@@ -3343,11 +3799,11 @@
       <c r="H37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J37" s="12">
-        <v>41274.0</v>
+      <c r="I37" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J37" s="9">
+        <v>41274</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>115</v>
@@ -3356,9 +3812,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>117</v>
@@ -3375,11 +3831,11 @@
       <c r="H38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J38" s="12">
-        <v>41274.0</v>
+      <c r="I38" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J38" s="9">
+        <v>41274</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>102</v>
@@ -3388,9 +3844,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>121</v>
@@ -3407,11 +3863,11 @@
       <c r="H39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="9">
-        <v>39814.0</v>
-      </c>
-      <c r="J39" s="12">
-        <v>40543.0</v>
+      <c r="I39" s="8">
+        <v>39814</v>
+      </c>
+      <c r="J39" s="9">
+        <v>40543</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>125</v>
@@ -3420,9 +3876,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>121</v>
@@ -3439,11 +3895,11 @@
       <c r="H40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I40" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="J40" s="12">
-        <v>40908.0</v>
+      <c r="I40" s="8">
+        <v>40179</v>
+      </c>
+      <c r="J40" s="9">
+        <v>40908</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>127</v>
@@ -3452,12 +3908,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="11" t="s">
+    <row r="42" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="29" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+    </row>
+    <row r="45" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>128</v>
       </c>
@@ -3465,37 +3931,37 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="B46" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="2:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>91</v>
@@ -3512,16 +3978,16 @@
       <c r="H47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="9">
-        <v>39448.0</v>
-      </c>
-      <c r="J47" s="9">
-        <v>39452.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="I47" s="8">
+        <v>39448</v>
+      </c>
+      <c r="J47" s="8">
+        <v>39452</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>91</v>
@@ -3538,16 +4004,16 @@
       <c r="H48" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I48" s="9">
-        <v>39819.0</v>
-      </c>
-      <c r="J48" s="9">
-        <v>40653.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="I48" s="8">
+        <v>39819</v>
+      </c>
+      <c r="J48" s="8">
+        <v>40653</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>91</v>
@@ -3564,16 +4030,16 @@
       <c r="H49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I49" s="9">
-        <v>40654.0</v>
-      </c>
-      <c r="J49" s="12">
-        <v>42003.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="I49" s="8">
+        <v>40654</v>
+      </c>
+      <c r="J49" s="9">
+        <v>42003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>103</v>
@@ -3590,16 +4056,16 @@
       <c r="H50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="J50" s="12">
-        <v>40543.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="I50" s="8">
+        <v>40179</v>
+      </c>
+      <c r="J50" s="9">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>103</v>
@@ -3616,16 +4082,16 @@
       <c r="H51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J51" s="12">
-        <v>40908.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="I51" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J51" s="9">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>110</v>
@@ -3642,16 +4108,16 @@
       <c r="H52" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J52" s="12">
-        <v>41274.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="I52" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J52" s="9">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>117</v>
@@ -3668,16 +4134,16 @@
       <c r="H53" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I53" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J53" s="12">
-        <v>41274.0</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="I53" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J53" s="9">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>121</v>
@@ -3694,16 +4160,16 @@
       <c r="H54" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I54" s="9">
-        <v>39814.0</v>
-      </c>
-      <c r="J54" s="12">
-        <v>40543.0</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="I54" s="8">
+        <v>39814</v>
+      </c>
+      <c r="J54" s="9">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>121</v>
@@ -3720,35 +4186,35 @@
       <c r="H55" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="J55" s="12">
-        <v>40908.0</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="I55" s="8">
+        <v>40179</v>
+      </c>
+      <c r="J55" s="9">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="D58" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59">
-      <c r="D59" s="8" t="s">
+    <row r="59" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="D59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="D60" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>95</v>
@@ -3760,9 +4226,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="D61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>98</v>
@@ -3774,9 +4240,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="D62" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>101</v>
@@ -3788,9 +4254,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="D63" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>106</v>
@@ -3802,9 +4268,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="D64" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>109</v>
@@ -3816,9 +4282,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="D65" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>114</v>
@@ -3830,9 +4296,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="D66" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>120</v>
@@ -3844,9 +4310,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="D67" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>124</v>
@@ -3858,9 +4324,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="D68" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>126</v>
@@ -3872,12 +4338,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" s="11" t="s">
+    <row r="70" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="B70" s="29" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+    </row>
+    <row r="73" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B73" s="4" t="s">
         <v>128</v>
       </c>
@@ -3885,35 +4361,35 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" s="8" t="s">
+    <row r="74" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="B74" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I74" s="8" t="s">
+      <c r="I74" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>91</v>
@@ -3922,24 +4398,24 @@
         <v>92</v>
       </c>
       <c r="E75" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I75" s="9">
-        <v>39448.0</v>
-      </c>
-      <c r="J75" s="9">
-        <v>39452.0</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="I75" s="8">
+        <v>39448</v>
+      </c>
+      <c r="J75" s="8">
+        <v>39452</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>91</v>
@@ -3948,24 +4424,24 @@
         <v>92</v>
       </c>
       <c r="E76" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I76" s="9">
-        <v>39819.0</v>
-      </c>
-      <c r="J76" s="9">
-        <v>40653.0</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="I76" s="8">
+        <v>39819</v>
+      </c>
+      <c r="J76" s="8">
+        <v>40653</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>91</v>
@@ -3974,24 +4450,24 @@
         <v>92</v>
       </c>
       <c r="E77" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="9">
-        <v>40654.0</v>
-      </c>
-      <c r="J77" s="12">
-        <v>42003.0</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="I77" s="8">
+        <v>40654</v>
+      </c>
+      <c r="J77" s="9">
+        <v>42003</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>103</v>
@@ -4000,24 +4476,24 @@
         <v>104</v>
       </c>
       <c r="E78" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I78" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="J78" s="12">
-        <v>40543.0</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="I78" s="8">
+        <v>40179</v>
+      </c>
+      <c r="J78" s="9">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>103</v>
@@ -4026,24 +4502,24 @@
         <v>104</v>
       </c>
       <c r="E79" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I79" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J79" s="12">
-        <v>40908.0</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="I79" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J79" s="9">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>110</v>
@@ -4052,24 +4528,24 @@
         <v>111</v>
       </c>
       <c r="E80" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I80" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J80" s="12">
-        <v>41274.0</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="I80" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J80" s="9">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>117</v>
@@ -4078,24 +4554,24 @@
         <v>118</v>
       </c>
       <c r="E81" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F81" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I81" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="J81" s="12">
-        <v>41274.0</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="I81" s="8">
+        <v>40544</v>
+      </c>
+      <c r="J81" s="9">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>121</v>
@@ -4104,24 +4580,24 @@
         <v>122</v>
       </c>
       <c r="E82" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F82" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I82" s="9">
-        <v>39814.0</v>
-      </c>
-      <c r="J82" s="12">
-        <v>40543.0</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="I82" s="8">
+        <v>39814</v>
+      </c>
+      <c r="J82" s="9">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>121</v>
@@ -4130,22 +4606,22 @@
         <v>122</v>
       </c>
       <c r="E83" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F83" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I83" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="J83" s="12">
-        <v>40908.0</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="I83" s="8">
+        <v>40179</v>
+      </c>
+      <c r="J83" s="9">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>135</v>
       </c>
@@ -4156,44 +4632,44 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" s="8" t="s">
+    <row r="87" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B87" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E88" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H88" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>96</v>
@@ -4202,21 +4678,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E89" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H89" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>99</v>
@@ -4225,21 +4701,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E90" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H90" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>102</v>
@@ -4248,21 +4724,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E91" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H91" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>107</v>
@@ -4271,21 +4747,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E92" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H92" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>102</v>
@@ -4294,21 +4770,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E93" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>113</v>
       </c>
       <c r="H93" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>115</v>
@@ -4317,21 +4793,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B94" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E94" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H94" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>102</v>
@@ -4340,21 +4816,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B95" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H95" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>125</v>
@@ -4363,21 +4839,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B96" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E96" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H96" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>127</v>
@@ -4386,7 +4862,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
         <v>141</v>
       </c>
@@ -4394,190 +4870,203 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101">
-      <c r="B101" s="8" t="s">
+    <row r="101" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B101" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B102" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D102" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B103" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D103" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B104" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D104" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F104" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B105" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F105" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B106" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D106" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F106" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B107" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D107" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F107" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B108" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D108" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F108" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B109" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D109" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F109" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B110" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D110" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F110" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="113">
-      <c r="B113" s="11" t="s">
+    <row r="113" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B113" s="29" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="14" t="s">
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="23"/>
+    </row>
+    <row r="115" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B115" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
       <c r="H115" s="4" t="s">
         <v>145</v>
       </c>
@@ -4588,205 +5077,205 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116">
-      <c r="B116" s="8" t="s">
+    <row r="116" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B116" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="H116" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I116" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K116" s="8" t="s">
+      <c r="K116" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L116" s="8" t="s">
+      <c r="L116" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N116" s="8" t="s">
+      <c r="N116" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="O116" s="8" t="s">
+      <c r="O116" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117">
-      <c r="B117" s="16">
-        <v>1.0</v>
+    <row r="117" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B117" s="12">
+        <v>1</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D117" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F117" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H117" s="16">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="H117" s="12">
+        <v>1</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K117" s="16">
-        <v>1.0</v>
+      <c r="K117" s="12">
+        <v>1</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N117" s="16">
-        <v>1.0</v>
+      <c r="N117" s="12">
+        <v>1</v>
       </c>
       <c r="O117" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118">
-      <c r="B118" s="16">
-        <v>2.0</v>
+    <row r="118" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B118" s="12">
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D118" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E118" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F118" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H118" s="16">
-        <v>2.0</v>
+        <v>2</v>
+      </c>
+      <c r="H118" s="12">
+        <v>2</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K118" s="16">
-        <v>2.0</v>
+      <c r="K118" s="12">
+        <v>2</v>
       </c>
       <c r="L118" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N118" s="16">
-        <v>2.0</v>
+      <c r="N118" s="12">
+        <v>2</v>
       </c>
       <c r="O118" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="119">
-      <c r="B119" s="16">
-        <v>3.0</v>
+    <row r="119" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B119" s="12">
+        <v>3</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D119" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E119" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F119" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H119" s="16">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="H119" s="12">
+        <v>3</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K119" s="16">
-        <v>3.0</v>
+      <c r="K119" s="12">
+        <v>3</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N119" s="16">
-        <v>3.0</v>
+      <c r="N119" s="12">
+        <v>3</v>
       </c>
       <c r="O119" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120">
-      <c r="B120" s="16">
-        <v>4.0</v>
+    <row r="120" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B120" s="12">
+        <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E120" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F120" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H120" s="16">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="H120" s="12">
+        <v>4</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N120" s="16">
-        <v>4.0</v>
+      <c r="N120" s="12">
+        <v>4</v>
       </c>
       <c r="O120" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121">
-      <c r="B121" s="16">
-        <v>5.0</v>
+    <row r="121" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B121" s="12">
+        <v>5</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D121" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E121" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F121" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H121" s="16">
-        <v>5.0</v>
+        <v>4</v>
+      </c>
+      <c r="H121" s="12">
+        <v>5</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123">
-      <c r="B123" s="14" t="s">
+    <row r="123" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B123" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
       <c r="G123" s="4" t="s">
         <v>129</v>
       </c>
@@ -4797,484 +5286,3750 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124">
-      <c r="B124" s="8" t="s">
+    <row r="124" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B124" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H124" s="8" t="s">
+      <c r="H124" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I124" s="8" t="s">
+      <c r="I124" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L124" s="8" t="s">
+      <c r="L124" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M124" s="8" t="s">
+      <c r="M124" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="O124" s="8" t="s">
+      <c r="O124" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P124" s="8" t="s">
+      <c r="P124" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125">
-      <c r="B125" s="16">
-        <v>1.0</v>
+    <row r="125" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B125" s="12">
+        <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E125" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G125" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H125" s="9">
-        <v>39448.0</v>
-      </c>
-      <c r="I125" s="9">
-        <v>39452.0</v>
-      </c>
-      <c r="K125" s="16">
-        <v>1.0</v>
+      <c r="H125" s="8">
+        <v>39448</v>
+      </c>
+      <c r="I125" s="8">
+        <v>39452</v>
+      </c>
+      <c r="K125" s="12">
+        <v>1</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>96</v>
       </c>
       <c r="M125" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O125" s="16">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="O125" s="12">
+        <v>1</v>
       </c>
       <c r="P125" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="126">
-      <c r="B126" s="16">
-        <v>2.0</v>
+    <row r="126" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B126" s="12">
+        <v>2</v>
       </c>
       <c r="C126" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E126" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="16" t="s">
+      <c r="G126" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H126" s="9">
-        <v>39819.0</v>
-      </c>
-      <c r="I126" s="9">
-        <v>40653.0</v>
-      </c>
-      <c r="K126" s="16">
-        <v>2.0</v>
+      <c r="H126" s="8">
+        <v>39819</v>
+      </c>
+      <c r="I126" s="8">
+        <v>40653</v>
+      </c>
+      <c r="K126" s="12">
+        <v>2</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>99</v>
       </c>
       <c r="M126" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O126" s="16">
-        <v>2.0</v>
+        <v>3</v>
+      </c>
+      <c r="O126" s="12">
+        <v>2</v>
       </c>
       <c r="P126" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="127">
-      <c r="B127" s="16">
-        <v>3.0</v>
+    <row r="127" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B127" s="12">
+        <v>3</v>
       </c>
       <c r="C127" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E127" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G127" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H127" s="9">
-        <v>40654.0</v>
-      </c>
-      <c r="I127" s="12">
-        <v>42003.0</v>
-      </c>
-      <c r="K127" s="16">
-        <v>3.0</v>
+      <c r="H127" s="8">
+        <v>40654</v>
+      </c>
+      <c r="I127" s="9">
+        <v>42003</v>
+      </c>
+      <c r="K127" s="12">
+        <v>3</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>102</v>
       </c>
       <c r="M127" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O127" s="16">
-        <v>3.0</v>
+        <v>2</v>
+      </c>
+      <c r="O127" s="12">
+        <v>3</v>
       </c>
       <c r="P127" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="128">
-      <c r="B128" s="16">
-        <v>4.0</v>
+    <row r="128" spans="2:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B128" s="12">
+        <v>4</v>
       </c>
       <c r="C128" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E128" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G128" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H128" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="I128" s="12">
-        <v>40543.0</v>
-      </c>
-      <c r="K128" s="16">
-        <v>4.0</v>
+      <c r="H128" s="8">
+        <v>40179</v>
+      </c>
+      <c r="I128" s="9">
+        <v>40543</v>
+      </c>
+      <c r="K128" s="12">
+        <v>4</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>107</v>
       </c>
       <c r="M128" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O128" s="16">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="O128" s="12">
+        <v>4</v>
       </c>
       <c r="P128" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="16">
-        <v>5.0</v>
+    <row r="129" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B129" s="12">
+        <v>5</v>
       </c>
       <c r="C129" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E129" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="G129" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H129" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I129" s="12">
-        <v>40908.0</v>
-      </c>
-      <c r="K129" s="16">
-        <v>5.0</v>
+      <c r="H129" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I129" s="9">
+        <v>40908</v>
+      </c>
+      <c r="K129" s="12">
+        <v>5</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>102</v>
       </c>
       <c r="M129" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" s="16">
-        <v>6.0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B130" s="12">
+        <v>6</v>
       </c>
       <c r="C130" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E130" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="G130" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H130" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I130" s="12">
-        <v>41274.0</v>
-      </c>
-      <c r="K130" s="16">
-        <v>6.0</v>
+      <c r="H130" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I130" s="9">
+        <v>41274</v>
+      </c>
+      <c r="K130" s="12">
+        <v>6</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>115</v>
       </c>
       <c r="M130" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" s="16">
-        <v>7.0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B131" s="12">
+        <v>7</v>
       </c>
       <c r="C131" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E131" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="G131" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H131" s="9">
-        <v>40544.0</v>
-      </c>
-      <c r="I131" s="12">
-        <v>41274.0</v>
-      </c>
-      <c r="K131" s="16">
-        <v>7.0</v>
+      <c r="H131" s="8">
+        <v>40544</v>
+      </c>
+      <c r="I131" s="9">
+        <v>41274</v>
+      </c>
+      <c r="K131" s="12">
+        <v>7</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>102</v>
       </c>
       <c r="M131" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" s="16">
-        <v>8.0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B132" s="12">
+        <v>8</v>
       </c>
       <c r="C132" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E132" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="G132" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H132" s="9">
-        <v>39814.0</v>
-      </c>
-      <c r="I132" s="12">
-        <v>40543.0</v>
-      </c>
-      <c r="K132" s="16">
-        <v>8.0</v>
+      <c r="H132" s="8">
+        <v>39814</v>
+      </c>
+      <c r="I132" s="9">
+        <v>40543</v>
+      </c>
+      <c r="K132" s="12">
+        <v>8</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>125</v>
       </c>
       <c r="M132" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" s="16">
-        <v>9.0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B133" s="12">
+        <v>9</v>
       </c>
       <c r="C133" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E133" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="G133" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H133" s="9">
-        <v>40179.0</v>
-      </c>
-      <c r="I133" s="12">
-        <v>40908.0</v>
-      </c>
-      <c r="K133" s="16">
-        <v>9.0</v>
+      <c r="H133" s="8">
+        <v>40179</v>
+      </c>
+      <c r="I133" s="9">
+        <v>40908</v>
+      </c>
+      <c r="K133" s="12">
+        <v>9</v>
       </c>
       <c r="L133" s="4" t="s">
         <v>127</v>
       </c>
       <c r="M133" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B137" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="19" t="s">
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+    </row>
+    <row r="138" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B138" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="139">
-      <c r="B139" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C139" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D139" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C140" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D140" s="16">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="C141" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D141" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="B142" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C142" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D142" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="C143" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D143" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="N143" s="21"/>
-    </row>
-    <row r="144">
-      <c r="B144" s="20">
-        <v>6.0</v>
-      </c>
-      <c r="C144" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D144" s="16">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="C145" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="D145" s="16">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="C146" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D146" s="16">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="B147" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="C147" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D147" s="16">
-        <v>9.0</v>
+    <row r="139" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B139" s="15">
+        <v>1</v>
+      </c>
+      <c r="C139" s="12">
+        <v>1</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B140" s="15">
+        <v>2</v>
+      </c>
+      <c r="C140" s="12">
+        <v>1</v>
+      </c>
+      <c r="D140" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B141" s="15">
+        <v>3</v>
+      </c>
+      <c r="C141" s="12">
+        <v>1</v>
+      </c>
+      <c r="D141" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B142" s="15">
+        <v>4</v>
+      </c>
+      <c r="C142" s="12">
+        <v>2</v>
+      </c>
+      <c r="D142" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B143" s="15">
+        <v>5</v>
+      </c>
+      <c r="C143" s="12">
+        <v>2</v>
+      </c>
+      <c r="D143" s="12">
+        <v>5</v>
+      </c>
+      <c r="N143" s="16"/>
+    </row>
+    <row r="144" spans="2:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="B144" s="15">
+        <v>6</v>
+      </c>
+      <c r="C144" s="12">
+        <v>3</v>
+      </c>
+      <c r="D144" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B145" s="15">
+        <v>7</v>
+      </c>
+      <c r="C145" s="12">
+        <v>4</v>
+      </c>
+      <c r="D145" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B146" s="15">
+        <v>8</v>
+      </c>
+      <c r="C146" s="12">
+        <v>5</v>
+      </c>
+      <c r="D146" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B147" s="15">
+        <v>9</v>
+      </c>
+      <c r="C147" s="12">
+        <v>5</v>
+      </c>
+      <c r="D147" s="12">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B113:O113"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B28:M28"/>
     <mergeCell ref="B42:L42"/>
-    <mergeCell ref="B28:M28"/>
     <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B113:O113"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:Q175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="25" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="31">
+        <v>111</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N5" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="31">
+        <v>114</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="31">
+        <v>113</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18">
+        <v>114</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="25" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18">
+        <v>111</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18">
+        <v>111</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N18" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18">
+        <v>114</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N19" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="18">
+        <v>114</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18">
+        <v>113</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="18">
+        <v>113</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="18">
+        <v>113</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="18">
+        <v>114</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N24" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="B26" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18">
+        <v>111</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18">
+        <v>111</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18">
+        <v>114</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="18">
+        <v>114</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18">
+        <v>113</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>113</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="18">
+        <v>113</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="18">
+        <v>114</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="B39" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="18">
+        <v>111</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q44" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="18">
+        <v>111</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B46" s="18">
+        <v>114</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B47" s="18">
+        <v>114</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q47" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B48" s="18">
+        <v>113</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q48" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B49" s="18">
+        <v>113</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B50" s="18">
+        <v>113</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q50" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B51" s="18">
+        <v>114</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E54" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E55" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E56" s="18">
+        <v>111</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E57" s="18">
+        <v>111</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E58" s="18">
+        <v>114</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E59" s="18">
+        <v>114</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E60" s="18">
+        <v>113</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E61" s="18">
+        <v>113</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E62" s="18">
+        <v>113</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="E63" s="18">
+        <v>114</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="B66" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+    </row>
+    <row r="69" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B70" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B71" s="18">
+        <v>111</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="18">
+        <v>1</v>
+      </c>
+      <c r="E71" s="18">
+        <v>1</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J71" s="18">
+        <v>1</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B72" s="18">
+        <v>111</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="18">
+        <v>1</v>
+      </c>
+      <c r="E72" s="18">
+        <v>1</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J72" s="18">
+        <v>1</v>
+      </c>
+      <c r="K72" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B73" s="18">
+        <v>114</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="18">
+        <v>2</v>
+      </c>
+      <c r="E73" s="18">
+        <v>2</v>
+      </c>
+      <c r="G73" s="18">
+        <v>2</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J73" s="18">
+        <v>2</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B74" s="18">
+        <v>114</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="18">
+        <v>2</v>
+      </c>
+      <c r="E74" s="18">
+        <v>2</v>
+      </c>
+      <c r="G74" s="18">
+        <v>2</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J74" s="18">
+        <v>2</v>
+      </c>
+      <c r="K74" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B75" s="18">
+        <v>113</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="18">
+        <v>3</v>
+      </c>
+      <c r="E75" s="18">
+        <v>3</v>
+      </c>
+      <c r="G75" s="18">
+        <v>3</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J75" s="18">
+        <v>3</v>
+      </c>
+      <c r="K75" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B76" s="18">
+        <v>113</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="18">
+        <v>3</v>
+      </c>
+      <c r="E76" s="18">
+        <v>3</v>
+      </c>
+      <c r="G76" s="18">
+        <v>3</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J76" s="18">
+        <v>3</v>
+      </c>
+      <c r="K76" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B77" s="18">
+        <v>113</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="18">
+        <v>3</v>
+      </c>
+      <c r="E77" s="18">
+        <v>3</v>
+      </c>
+      <c r="G77" s="18">
+        <v>3</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J77" s="18">
+        <v>3</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B78" s="18">
+        <v>114</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="18">
+        <v>1</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J78" s="18">
+        <v>1</v>
+      </c>
+      <c r="K78" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B81" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B82" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B83" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="18">
+        <v>1</v>
+      </c>
+      <c r="D83" s="18">
+        <v>1</v>
+      </c>
+      <c r="F83" s="18">
+        <v>1</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83" s="18">
+        <v>1</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B84" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="18">
+        <v>1</v>
+      </c>
+      <c r="D84" s="18">
+        <v>1</v>
+      </c>
+      <c r="F84" s="18">
+        <v>1</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I84" s="18">
+        <v>1</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B85" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="18">
+        <v>2</v>
+      </c>
+      <c r="D85" s="18">
+        <v>2</v>
+      </c>
+      <c r="F85" s="18">
+        <v>2</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I85" s="18">
+        <v>2</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B86" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="18">
+        <v>2</v>
+      </c>
+      <c r="D86" s="18">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18">
+        <v>2</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I86" s="18">
+        <v>2</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B87" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="18">
+        <v>1</v>
+      </c>
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="F87" s="18">
+        <v>1</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I87" s="18">
+        <v>1</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B88" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="18">
+        <v>1</v>
+      </c>
+      <c r="D88" s="18">
+        <v>1</v>
+      </c>
+      <c r="F88" s="18">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I88" s="18">
+        <v>1</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B89" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="18">
+        <v>1</v>
+      </c>
+      <c r="D89" s="18">
+        <v>1</v>
+      </c>
+      <c r="F89" s="18">
+        <v>1</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I89" s="18">
+        <v>1</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B90" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="18">
+        <v>2</v>
+      </c>
+      <c r="D90" s="18">
+        <v>2</v>
+      </c>
+      <c r="F90" s="18">
+        <v>2</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I90" s="18">
+        <v>2</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B94" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B95" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B96" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B97" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B98" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B99" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B100" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B101" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B102" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B105" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B106" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B107" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="18">
+        <v>1</v>
+      </c>
+      <c r="D107" s="18">
+        <v>1</v>
+      </c>
+      <c r="E107" s="18">
+        <v>3</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J107" s="18">
+        <v>1</v>
+      </c>
+      <c r="K107" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B108" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="18">
+        <v>2</v>
+      </c>
+      <c r="D108" s="18">
+        <v>1</v>
+      </c>
+      <c r="E108" s="18">
+        <v>3</v>
+      </c>
+      <c r="G108" s="18">
+        <v>2</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J108" s="18">
+        <v>1</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B109" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="18">
+        <v>2</v>
+      </c>
+      <c r="D109" s="18">
+        <v>1</v>
+      </c>
+      <c r="E109" s="18">
+        <v>2</v>
+      </c>
+      <c r="G109" s="18">
+        <v>2</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J109" s="18">
+        <v>1</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B110" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" s="18">
+        <v>3</v>
+      </c>
+      <c r="D110" s="18">
+        <v>1</v>
+      </c>
+      <c r="E110" s="18">
+        <v>2</v>
+      </c>
+      <c r="G110" s="18">
+        <v>3</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J110" s="18">
+        <v>1</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B111" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="18">
+        <v>1</v>
+      </c>
+      <c r="D111" s="18">
+        <v>1</v>
+      </c>
+      <c r="E111" s="18">
+        <v>3</v>
+      </c>
+      <c r="G111" s="18">
+        <v>1</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J111" s="18">
+        <v>1</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B112" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="18">
+        <v>2</v>
+      </c>
+      <c r="D112" s="18">
+        <v>1</v>
+      </c>
+      <c r="E112" s="18">
+        <v>3</v>
+      </c>
+      <c r="G112" s="18">
+        <v>2</v>
+      </c>
+      <c r="H112" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J112" s="18">
+        <v>1</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B113" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C113" s="18">
+        <v>3</v>
+      </c>
+      <c r="D113" s="18">
+        <v>1</v>
+      </c>
+      <c r="E113" s="18">
+        <v>3</v>
+      </c>
+      <c r="G113" s="18">
+        <v>3</v>
+      </c>
+      <c r="H113" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J113" s="18">
+        <v>1</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B114" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="18">
+        <v>1</v>
+      </c>
+      <c r="D114" s="18">
+        <v>1</v>
+      </c>
+      <c r="E114" s="18">
+        <v>2</v>
+      </c>
+      <c r="G114" s="18">
+        <v>1</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J114" s="18">
+        <v>1</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B117" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B118" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B119" s="20">
+        <v>111</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B120" s="20">
+        <v>111</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B121" s="20">
+        <v>114</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B122" s="20">
+        <v>114</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B123" s="20">
+        <v>113</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B124" s="20">
+        <v>113</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B125" s="20">
+        <v>113</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" ht="13" x14ac:dyDescent="0.15">
+      <c r="B126" s="20">
+        <v>114</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="B128" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="23"/>
+      <c r="Q128" s="23"/>
+    </row>
+    <row r="130" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B130" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B131" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="K131" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B132" s="20">
+        <v>111</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" s="18">
+        <v>1</v>
+      </c>
+      <c r="E132" s="18">
+        <v>1</v>
+      </c>
+      <c r="G132" s="18">
+        <v>1</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J132" s="18">
+        <v>1</v>
+      </c>
+      <c r="K132" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B133" s="20">
+        <v>113</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D133" s="18">
+        <v>3</v>
+      </c>
+      <c r="E133" s="18">
+        <v>3</v>
+      </c>
+      <c r="G133" s="18">
+        <v>2</v>
+      </c>
+      <c r="H133" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J133" s="18">
+        <v>2</v>
+      </c>
+      <c r="K133" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B134" s="20">
+        <v>114</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D134" s="18">
+        <v>2</v>
+      </c>
+      <c r="E134" s="18">
+        <v>2</v>
+      </c>
+      <c r="G134" s="18">
+        <v>3</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J134" s="18">
+        <v>3</v>
+      </c>
+      <c r="K134" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B136" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B137" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B138" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="18">
+        <v>1</v>
+      </c>
+      <c r="D138" s="18">
+        <v>1</v>
+      </c>
+      <c r="F138" s="18">
+        <v>1</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I138" s="18">
+        <v>1</v>
+      </c>
+      <c r="J138" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B139" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" s="18">
+        <v>2</v>
+      </c>
+      <c r="D139" s="18">
+        <v>2</v>
+      </c>
+      <c r="F139" s="18">
+        <v>2</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I139" s="18">
+        <v>2</v>
+      </c>
+      <c r="J139" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B142" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B143" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B144" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B145" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B146" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B147" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B148" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B149" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B150" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B151" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B154" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B155" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J155" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="K155" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B156" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C156" s="18">
+        <v>1</v>
+      </c>
+      <c r="D156" s="18">
+        <v>1</v>
+      </c>
+      <c r="E156" s="18">
+        <v>3</v>
+      </c>
+      <c r="G156" s="18">
+        <v>1</v>
+      </c>
+      <c r="H156" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J156" s="18">
+        <v>1</v>
+      </c>
+      <c r="K156" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B157" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="18">
+        <v>2</v>
+      </c>
+      <c r="D157" s="18">
+        <v>1</v>
+      </c>
+      <c r="E157" s="18">
+        <v>3</v>
+      </c>
+      <c r="G157" s="18">
+        <v>2</v>
+      </c>
+      <c r="H157" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B158" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="18">
+        <v>2</v>
+      </c>
+      <c r="D158" s="18">
+        <v>1</v>
+      </c>
+      <c r="E158" s="18">
+        <v>2</v>
+      </c>
+      <c r="G158" s="18">
+        <v>3</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B159" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="18">
+        <v>3</v>
+      </c>
+      <c r="D159" s="18">
+        <v>1</v>
+      </c>
+      <c r="E159" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B160" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" s="18">
+        <v>1</v>
+      </c>
+      <c r="D160" s="18">
+        <v>1</v>
+      </c>
+      <c r="E160" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B161" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" s="18">
+        <v>2</v>
+      </c>
+      <c r="D161" s="18">
+        <v>1</v>
+      </c>
+      <c r="E161" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B162" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" s="18">
+        <v>3</v>
+      </c>
+      <c r="D162" s="18">
+        <v>1</v>
+      </c>
+      <c r="E162" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B163" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="18">
+        <v>1</v>
+      </c>
+      <c r="D163" s="18">
+        <v>1</v>
+      </c>
+      <c r="E163" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B166" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B167" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F167" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B168" s="21">
+        <v>1</v>
+      </c>
+      <c r="C168" s="20">
+        <v>111</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F168" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B169" s="21">
+        <v>2</v>
+      </c>
+      <c r="C169" s="20">
+        <v>111</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F169" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B170" s="21">
+        <v>3</v>
+      </c>
+      <c r="C170" s="20">
+        <v>114</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F170" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B171" s="21">
+        <v>4</v>
+      </c>
+      <c r="C171" s="20">
+        <v>114</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F171" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B172" s="21">
+        <v>5</v>
+      </c>
+      <c r="C172" s="20">
+        <v>113</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F172" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B173" s="21">
+        <v>6</v>
+      </c>
+      <c r="C173" s="20">
+        <v>113</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E173" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F173" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B174" s="21">
+        <v>7</v>
+      </c>
+      <c r="C174" s="20">
+        <v>113</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E174" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F174" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B175" s="21">
+        <v>8</v>
+      </c>
+      <c r="C175" s="20">
+        <v>114</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E175" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F175" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="B128:Q128"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B14:N14"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>